--- a/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="87">
   <si>
     <t>FICHA</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Webs de referencia</t>
+  </si>
+  <si>
+    <t>ESO Y BACHILLERATO</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1656,12 +1662,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
@@ -1692,8 +1699,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -1732,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1754,9 +1765,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
-      <c r="A2" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2" s="18"/>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -1972,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="101">
   <si>
     <t>FICHA</t>
   </si>
@@ -323,6 +323,48 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Una mirada a la vida y obra de José Celestino Mutis</t>
+  </si>
+  <si>
+    <t>Antonio Nariño “El Precursor de la Independencia”</t>
+  </si>
+  <si>
+    <t>sí</t>
+  </si>
+  <si>
+    <t>El Memorial de agravios</t>
+  </si>
+  <si>
+    <t>Causas de la Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>El papel de la mujer en la Independencia</t>
+  </si>
+  <si>
+    <t>¿Cómo fue la Independencia del 20 de julio?</t>
+  </si>
+  <si>
+    <t>¿Por qué llamaron a Colombia la Patria Boba?</t>
+  </si>
+  <si>
+    <t>Patria Boba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héroes y antihéroes </t>
+  </si>
+  <si>
+    <t>Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>Antonio Nariño "El Precursor de la independencia"</t>
+  </si>
+  <si>
+    <t>Independencia de Estados Unidos Mapa conceptual</t>
+  </si>
+  <si>
+    <t>La Revolución francesa</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1741,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1765,7 +1807,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +1819,7 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1786,29 +1830,29 @@
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
-      <c r="A5" s="20" t="s">
-        <v>28</v>
+      <c r="A5" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1819,7 +1863,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1830,7 +1874,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1841,7 +1885,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1852,7 +1896,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1863,10 +1907,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>130</v>
@@ -1874,7 +1918,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1885,7 +1929,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1896,7 +1940,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1907,13 +1951,68 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15">
         <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +2020,7 @@
     <sortCondition ref="C2:C65"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1937,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1959,7 +2058,249 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="C27" s="6"/>
     </row>
   </sheetData>
@@ -1968,7 +2309,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="71" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="71" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="3"/>
+    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="102">
   <si>
     <t>FICHA</t>
   </si>
@@ -100,27 +100,18 @@
     <t>Ciencias Sociales</t>
   </si>
   <si>
-    <t>Antonio Nariño,  el “Precursor de la Independencia”</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>La Rebelión de los comuneros</t>
   </si>
   <si>
-    <t>Causas de la Independencia</t>
-  </si>
-  <si>
     <t>Héroes y antihéroes</t>
   </si>
   <si>
     <t>Carta de Jamaica</t>
   </si>
   <si>
-    <t>Ahorcado sobre la Patria Boba</t>
-  </si>
-  <si>
     <t>Cronología de la campaña libertadora</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>La patria</t>
   </si>
   <si>
-    <t>Sopa de letras sobre la Independencia</t>
-  </si>
-  <si>
     <t>Mapa conceptual</t>
   </si>
   <si>
@@ -154,21 +142,6 @@
     <t>Causas internas</t>
   </si>
   <si>
-    <r>
-      <t>La redacción del</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Memorial de agravios</t>
-    </r>
-  </si>
-  <si>
     <t>Foto</t>
   </si>
   <si>
@@ -182,6 +155,141 @@
   </si>
   <si>
     <t>Recuerda</t>
+  </si>
+  <si>
+    <t>Dibujo de Alberto Urdaneta, grabado por Antonio Rodríguez sobre la Rebelión comunera.</t>
+  </si>
+  <si>
+    <t>Antonio Nariño y los Derechos del Hombre</t>
+  </si>
+  <si>
+    <t>La Expedición Botánica</t>
+  </si>
+  <si>
+    <t>José Celestino Mutis</t>
+  </si>
+  <si>
+    <t>Causas externas</t>
+  </si>
+  <si>
+    <t>Influencia de las ideas de la Ilustración</t>
+  </si>
+  <si>
+    <t>El sueño de la razón produce monstruos, pintura de Goya</t>
+  </si>
+  <si>
+    <t>Profundiza</t>
+  </si>
+  <si>
+    <t>La Ilustración</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>La Independencia de Estados Unidos</t>
+  </si>
+  <si>
+    <t>Entrada de George Washington a Nueva York</t>
+  </si>
+  <si>
+    <t>La Independencia de Estados Unidos - Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Destacado</t>
+  </si>
+  <si>
+    <t>El 20 de julio de 1810</t>
+  </si>
+  <si>
+    <t>La Patria Boba</t>
+  </si>
+  <si>
+    <t>Mapa de la división política del Virreinato de Santa Fe en 1810</t>
+  </si>
+  <si>
+    <t>Centralismo y Federalismo</t>
+  </si>
+  <si>
+    <t>Antonio Nariño</t>
+  </si>
+  <si>
+    <t>Pablo Morillo</t>
+  </si>
+  <si>
+    <t>El Régimen del Terror</t>
+  </si>
+  <si>
+    <t>Policarpa Salavarrieta</t>
+  </si>
+  <si>
+    <t>Bolívar y la campaña libertadora</t>
+  </si>
+  <si>
+    <t>El Libertador en traje de campaña. Por Arturo Michelena</t>
+  </si>
+  <si>
+    <t>Consecuencias de la Independencia</t>
+  </si>
+  <si>
+    <t>Escudo de Colombia 1820</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>ESO Y BACHILLERATO</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Una mirada a la vida y obra de José Celestino Mutis</t>
+  </si>
+  <si>
+    <t>Antonio Nariño “El Precursor de la Independencia”</t>
+  </si>
+  <si>
+    <t>sí</t>
+  </si>
+  <si>
+    <t>El Memorial de agravios</t>
+  </si>
+  <si>
+    <t>Causas de la Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>El papel de la mujer en la Independencia</t>
+  </si>
+  <si>
+    <t>¿Cómo fue la Independencia del 20 de julio?</t>
+  </si>
+  <si>
+    <t>¿Por qué llamaron a Colombia la Patria Boba?</t>
+  </si>
+  <si>
+    <t>Patria Boba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héroes y antihéroes </t>
+  </si>
+  <si>
+    <t>Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>Antonio Nariño "El Precursor de la independencia"</t>
+  </si>
+  <si>
+    <t>Independencia de Estados Unidos Mapa conceptual</t>
+  </si>
+  <si>
+    <t>La Revolución francesa</t>
   </si>
   <si>
     <r>
@@ -195,11 +303,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Revolución de los comuneros</t>
+      <t xml:space="preserve"> Rebelión de los comuneros</t>
     </r>
-  </si>
-  <si>
-    <t>Dibujo de Alberto Urdaneta, grabado por Antonio Rodríguez sobre la Rebelión comunera.</t>
   </si>
   <si>
     <r>
@@ -217,161 +322,81 @@
     </r>
   </si>
   <si>
-    <t>Antonio Nariño y los Derechos del Hombre</t>
-  </si>
-  <si>
-    <t>La Expedición Botánica</t>
-  </si>
-  <si>
-    <t>José Celestino Mutis</t>
-  </si>
-  <si>
-    <t>Causas externas</t>
-  </si>
-  <si>
-    <t>Influencia de las ideas de la Ilustración</t>
-  </si>
-  <si>
-    <t>El sueño de la razón produce monstruos, pintura de Goya</t>
-  </si>
-  <si>
-    <t>Profundiza</t>
-  </si>
-  <si>
-    <t>La Ilustración</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>La Revolución Francesa</t>
-  </si>
-  <si>
-    <t>La libertad guiando al pueblo, de Eugene Delacroix</t>
-  </si>
-  <si>
-    <t>La Independencia de Estados Unidos</t>
-  </si>
-  <si>
-    <t>Entrada de George Washington a Nueva York</t>
-  </si>
-  <si>
-    <t>La Independencia de Estados Unidos - Mapa conceptual</t>
-  </si>
-  <si>
-    <t>Destacado</t>
-  </si>
-  <si>
-    <t>El 20 de julio de 1810</t>
-  </si>
-  <si>
-    <t>Firma del acta de Independencia de Colombia</t>
-  </si>
-  <si>
-    <t>La Patria Boba</t>
-  </si>
-  <si>
-    <t>Mapa de la división política del Virreinato de Santa Fe en 1810</t>
-  </si>
-  <si>
-    <t>Centralismo y Federalismo</t>
-  </si>
-  <si>
-    <t>Antonio Nariño</t>
-  </si>
-  <si>
-    <t>La Reconquista española y el Régimen del Terror</t>
-  </si>
-  <si>
-    <t>Pablo Morillo</t>
-  </si>
-  <si>
-    <t>El Régimen del Terror</t>
-  </si>
-  <si>
-    <t>Policarpa Salavarrieta</t>
-  </si>
-  <si>
-    <t>Bolívar y la campaña libertadora</t>
-  </si>
-  <si>
-    <t>El Libertador en traje de campaña. Por Arturo Michelena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Batalla de Boyacá </t>
-  </si>
-  <si>
-    <t>Consecuencias de la Independencia</t>
-  </si>
-  <si>
-    <t>Escudo de Colombia 1820</t>
-  </si>
-  <si>
-    <t>Consolidación</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
-  </si>
-  <si>
-    <t>Webs de referencia</t>
-  </si>
-  <si>
-    <t>ESO Y BACHILLERATO</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Una mirada a la vida y obra de José Celestino Mutis</t>
-  </si>
-  <si>
-    <t>Antonio Nariño “El Precursor de la Independencia”</t>
-  </si>
-  <si>
-    <t>sí</t>
-  </si>
-  <si>
-    <t>El Memorial de agravios</t>
-  </si>
-  <si>
-    <t>Causas de la Independencia de la Nueva Granada</t>
-  </si>
-  <si>
-    <t>El papel de la mujer en la Independencia</t>
-  </si>
-  <si>
-    <t>¿Cómo fue la Independencia del 20 de julio?</t>
-  </si>
-  <si>
-    <t>¿Por qué llamaron a Colombia la Patria Boba?</t>
-  </si>
-  <si>
-    <t>Patria Boba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Héroes y antihéroes </t>
-  </si>
-  <si>
-    <t>Independencia de la Nueva Granada</t>
-  </si>
-  <si>
-    <t>Antonio Nariño "El Precursor de la independencia"</t>
-  </si>
-  <si>
-    <t>Independencia de Estados Unidos Mapa conceptual</t>
-  </si>
-  <si>
-    <t>La Revolución francesa</t>
+    <r>
+      <t>La redacción del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Memorial de agravios</t>
+    </r>
+  </si>
+  <si>
+    <t>Situación de España</t>
+  </si>
+  <si>
+    <t>Cuadro de Napoleón Bonaparte</t>
+  </si>
+  <si>
+    <r>
+      <t>La libertad guiando al pueblo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, de Eugene Delacroix, 1830.</t>
+    </r>
+  </si>
+  <si>
+    <t>Firma del acta de Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Reconquista española </t>
+  </si>
+  <si>
+    <t>La Batalla de Boyacá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La campaña libertadora </t>
+  </si>
+  <si>
+    <t>Personajes y acontecimientos de la Independencia - Crucigrama</t>
+  </si>
+  <si>
+    <t>Independencia de la Nueva Granada - Sopa de letras</t>
+  </si>
+  <si>
+    <t>La Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Independencia de </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +478,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -474,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -495,6 +535,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -899,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -948,6 +1003,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1630,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1645,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1742,10 +1805,10 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1785,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1808,10 +1871,10 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1819,10 +1882,10 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1830,10 +1893,10 @@
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1841,10 +1904,10 @@
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1852,10 +1915,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -1863,10 +1926,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>90</v>
@@ -1874,10 +1937,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -1885,10 +1948,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>110</v>
@@ -1896,10 +1959,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>120</v>
@@ -1907,10 +1970,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>130</v>
@@ -1918,10 +1981,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>140</v>
@@ -1929,10 +1992,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -1940,10 +2003,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>160</v>
@@ -1951,10 +2014,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>170</v>
@@ -1962,10 +2025,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>180</v>
@@ -1973,10 +2036,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>190</v>
@@ -1984,10 +2047,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -1995,10 +2058,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>210</v>
@@ -2006,10 +2069,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>220</v>
@@ -2036,8 +2099,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2063,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2074,10 +2137,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2085,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2096,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2107,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2118,10 +2181,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2129,10 +2192,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2140,10 +2203,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2151,10 +2214,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2162,10 +2225,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2173,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2184,10 +2247,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2195,10 +2258,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2206,10 +2269,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2217,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2228,10 +2291,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2239,10 +2302,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2250,10 +2313,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2261,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2272,10 +2335,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2283,10 +2346,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2294,10 +2357,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2320,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2370,13 +2433,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2386,256 +2449,209 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F9"/>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F10"/>
       <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>26</v>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -2643,188 +2659,150 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
+      <c r="F16" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="I17" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
+      <c r="F19" t="s">
+        <v>69</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
+      <c r="F21" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="F22" s="24"/>
       <c r="G22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2833,21 +2811,24 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2855,42 +2836,47 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2898,16 +2884,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2915,19 +2901,22 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>63</v>
+      <c r="I28" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2935,22 +2924,22 @@
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2958,16 +2947,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2975,16 +2964,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2992,22 +2981,20 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3015,26 +3002,37 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H34" s="21" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3042,79 +3040,91 @@
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="H37" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="F38"/>
+      <c r="H38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="H39" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="F39"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -3123,30 +3133,28 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3154,16 +3162,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3171,27 +3179,26 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="H45" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3199,30 +3206,25 @@
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>73</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3230,13 +3232,13 @@
         <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3244,16 +3246,19 @@
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3261,13 +3266,19 @@
         <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3275,33 +3286,25 @@
         <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>46</v>
+      <c r="D52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3309,19 +3312,13 @@
         <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3329,9 +3326,18 @@
         <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3340,13 +3346,13 @@
         <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3354,10 +3360,13 @@
         <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3365,13 +3374,19 @@
         <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3379,10 +3394,13 @@
         <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3390,10 +3408,13 @@
         <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3401,16 +3422,19 @@
         <v>19</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3418,10 +3442,10 @@
         <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3429,16 +3453,16 @@
         <v>19</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3446,13 +3470,10 @@
         <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3460,10 +3481,19 @@
         <v>19</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3471,16 +3501,13 @@
         <v>19</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3488,16 +3515,19 @@
         <v>19</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3505,69 +3535,214 @@
         <v>19</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" t="s">
-        <v>82</v>
+      <c r="E68" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="E69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="D71"/>
+      <c r="E71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>84</v>
+      <c r="H75" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="E78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/esqueletoGuion_CS_05_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729"/>
+    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="103">
   <si>
     <t>FICHA</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>TIPO SECCION 3</t>
-  </si>
-  <si>
-    <t>La Independencia de Colombia</t>
   </si>
   <si>
     <t>CS_05_01_CO</t>
@@ -322,32 +319,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>La redacción del</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Memorial de agravios</t>
-    </r>
-  </si>
-  <si>
     <t>Situación de España</t>
   </si>
   <si>
@@ -389,7 +360,28 @@
     <t>La Independencia de la Nueva Granada</t>
   </si>
   <si>
-    <t xml:space="preserve">La Independencia de </t>
+    <t>Independencia de Estados Unidos - Mapa conceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Revolución francesa </t>
+  </si>
+  <si>
+    <r>
+      <t>La redacción del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Memorial de agravios</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidación </t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1693,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1708,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1716,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1724,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1732,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1748,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1759,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1805,15 +1797,21 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="C2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1821,6 +1819,40 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="1:12">
       <c r="G9" s="10"/>
     </row>
@@ -1835,7 +1867,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1871,10 +1903,10 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1882,10 +1914,10 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1893,10 +1925,10 @@
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1904,10 +1936,10 @@
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1915,10 +1947,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -1926,10 +1958,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>90</v>
@@ -1937,10 +1969,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -1948,10 +1980,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>110</v>
@@ -1959,10 +1991,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>120</v>
@@ -1970,10 +2002,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>130</v>
@@ -1981,10 +2013,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>140</v>
@@ -1992,10 +2024,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -2003,10 +2035,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>160</v>
@@ -2014,10 +2046,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>170</v>
@@ -2025,10 +2057,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>180</v>
@@ -2036,10 +2068,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>190</v>
@@ -2047,10 +2079,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -2058,10 +2090,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>210</v>
@@ -2069,10 +2101,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>220</v>
@@ -2126,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2137,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2148,10 +2180,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2159,10 +2191,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2170,10 +2202,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2181,10 +2213,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2192,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2203,10 +2235,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2214,10 +2246,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2225,10 +2257,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2236,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2247,10 +2279,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2258,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2269,10 +2301,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2280,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2291,10 +2323,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2302,10 +2334,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2313,10 +2345,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2324,10 +2356,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2335,10 +2367,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2346,10 +2378,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2357,10 +2389,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2385,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2433,13 +2465,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2449,17 +2481,17 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2467,290 +2499,375 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="9"/>
-      <c r="F9"/>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10"/>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="24" t="s">
-        <v>90</v>
+      <c r="F16" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="I17" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
+      <c r="D20" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="9"/>
@@ -2758,359 +2875,380 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="24" t="s">
-        <v>91</v>
+      <c r="F21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="24"/>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="I26" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="I28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2"/>
       <c r="F38"/>
       <c r="H38" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39"/>
@@ -3118,490 +3256,534 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2"/>
       <c r="H45" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>61</v>
-      </c>
       <c r="I49" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="I50" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="F52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="I57" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>66</v>
-      </c>
       <c r="I62" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="D71"/>
-      <c r="E71" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H71" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72"/>
       <c r="H72" s="21"/>
@@ -3609,140 +3791,139 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>68</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76" s="20"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
         <v>69</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
